--- a/bom.xlsx
+++ b/bom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>Vender</t>
   </si>
@@ -71,9 +71,6 @@
     <t>91290A123</t>
   </si>
   <si>
-    <t>90576A102</t>
-  </si>
-  <si>
     <t>M3 x 12mm Screw (Qty 100)</t>
   </si>
   <si>
@@ -81,6 +78,24 @@
   </si>
   <si>
     <t>M3 Nut Screw (Qty 100)</t>
+  </si>
+  <si>
+    <t>90591A250</t>
+  </si>
+  <si>
+    <t>Acrylic 12x12x1/8</t>
+  </si>
+  <si>
+    <t>8505K741</t>
+  </si>
+  <si>
+    <t>Sub-Micro Servo</t>
+  </si>
+  <si>
+    <t>ROB-09065</t>
+  </si>
+  <si>
+    <t>Sparc Fun</t>
   </si>
 </sst>
 </file>
@@ -461,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G7"/>
+  <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -512,6 +527,10 @@
       <c r="F2">
         <v>7.78</v>
       </c>
+      <c r="G2">
+        <f>E2*F2</f>
+        <v>7.78</v>
+      </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
@@ -529,6 +548,10 @@
       <c r="F3">
         <v>6.58</v>
       </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G9" si="0">E3*F3</f>
+        <v>6.58</v>
+      </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
@@ -546,13 +569,17 @@
       <c r="F4">
         <v>6.81</v>
       </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>6.81</v>
+      </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -563,13 +590,17 @@
       <c r="F5">
         <v>7.75</v>
       </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>7.75</v>
+      </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -580,29 +611,80 @@
       <c r="F6">
         <v>9.6999999999999993</v>
       </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>9.6999999999999993</v>
+      </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>3.27</v>
+        <v>2.06</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>6.74</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>6.74</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>35.799999999999997</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" location="91290A111" display="https://www.mcmaster.com/ - 91290A111"/>
+    <hyperlink ref="D8" r:id="rId2" location="8505K741" display="https://www.mcmaster.com/ - 8505K741"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/bom.xlsx
+++ b/bom.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t>Vender</t>
   </si>
@@ -89,13 +89,10 @@
     <t>8505K741</t>
   </si>
   <si>
-    <t>Sub-Micro Servo</t>
-  </si>
-  <si>
-    <t>ROB-09065</t>
-  </si>
-  <si>
     <t>Sparc Fun</t>
+  </si>
+  <si>
+    <t>Micro Servo (SG92R)</t>
   </si>
 </sst>
 </file>
@@ -479,7 +476,7 @@
   <dimension ref="B1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -660,23 +657,23 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" t="s">
         <v>22</v>
+      </c>
+      <c r="D9">
+        <v>169</v>
       </c>
       <c r="E9">
         <v>4</v>
       </c>
       <c r="F9">
-        <v>8.9499999999999993</v>
+        <v>5.95</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>35.799999999999997</v>
+        <v>23.8</v>
       </c>
     </row>
   </sheetData>

--- a/bom.xlsx
+++ b/bom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>Vender</t>
   </si>
@@ -32,18 +32,12 @@
     <t>McMaster-CARR</t>
   </si>
   <si>
-    <t>Desc</t>
-  </si>
-  <si>
     <t>Part Number</t>
   </si>
   <si>
     <t>Qty</t>
   </si>
   <si>
-    <t>Price</t>
-  </si>
-  <si>
     <t>Unit Price</t>
   </si>
   <si>
@@ -89,17 +83,44 @@
     <t>8505K741</t>
   </si>
   <si>
-    <t>Sparc Fun</t>
-  </si>
-  <si>
-    <t>Micro Servo (SG92R)</t>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Total Price</t>
+  </si>
+  <si>
+    <t>Adafruit</t>
+  </si>
+  <si>
+    <t>Feather 32u4 Basic Proto</t>
+  </si>
+  <si>
+    <t>Lithium Ion Polymer Battery - 3.7v 500mAh</t>
+  </si>
+  <si>
+    <t>Micro Lipo - USB LiIon/LiPoly charger - v1</t>
+  </si>
+  <si>
+    <t>8-Channel PWM or Servo FeatherWing</t>
+  </si>
+  <si>
+    <t>Micro Servo</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>will provide</t>
+  </si>
+  <si>
+    <t>optional</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,15 +138,51 @@
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -138,8 +195,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -147,17 +216,73 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -473,213 +598,316 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G9"/>
+  <dimension ref="B1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.6640625" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.77734375" customWidth="1"/>
+    <col min="3" max="3" width="30.44140625" customWidth="1"/>
     <col min="4" max="4" width="19.5546875" customWidth="1"/>
     <col min="6" max="6" width="16.5546875" customWidth="1"/>
     <col min="7" max="7" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="2:7" s="3" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="5">
+        <v>2771</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6">
+        <v>19.95</v>
+      </c>
+      <c r="G2" s="6">
+        <v>19.95</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1578</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6">
+        <v>7.95</v>
+      </c>
+      <c r="G3" s="6">
+        <v>7.95</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1904</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9">
+        <v>5.95</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="5">
+        <v>2928</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="G5" s="6">
+        <v>9.9499999999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="5">
+        <v>169</v>
+      </c>
+      <c r="E6" s="6">
+        <v>4</v>
+      </c>
+      <c r="F6" s="6">
+        <v>5.95</v>
+      </c>
+      <c r="G6" s="6">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="12">
+        <v>1</v>
+      </c>
+      <c r="F7" s="12">
+        <v>6.74</v>
+      </c>
+      <c r="G7" s="12">
+        <v>6.74</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="D8" s="14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E8" s="15">
+        <v>1</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>7.78</v>
-      </c>
-      <c r="G2">
-        <f>E2*F2</f>
-        <v>7.78</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E9" s="15">
+        <v>1</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D10" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>6.58</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G9" si="0">E3*F3</f>
-        <v>6.58</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E10" s="15">
+        <v>1</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="15">
+        <v>1</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>6.81</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
-        <v>6.81</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E12" s="15">
+        <v>1</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>7.75</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>7.75</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D13" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
-        <v>9.6999999999999993</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>2.06</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
-        <v>2.06</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>6.74</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
-        <v>6.74</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9">
-        <v>169</v>
-      </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-      <c r="F9">
-        <v>5.95</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>23.8</v>
-      </c>
+      <c r="E13" s="15">
+        <v>1</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="6">
+        <f>SUM(G2:G13)</f>
+        <v>68.389999999999986</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="17"/>
+      <c r="C15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="2:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="7"/>
+      <c r="C16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" location="91290A111" display="https://www.mcmaster.com/ - 91290A111"/>
-    <hyperlink ref="D8" r:id="rId2" location="8505K741" display="https://www.mcmaster.com/ - 8505K741"/>
+    <hyperlink ref="D7" r:id="rId1" location="8505K741" display="https://www.mcmaster.com/ - 8505K741"/>
+    <hyperlink ref="D8" r:id="rId2" location="91290A111" display="https://www.mcmaster.com/ - 91290A111"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
